--- a/TimelineCreator.xlsx
+++ b/TimelineCreator.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Year</t>
   </si>
@@ -275,6 +275,18 @@
   </si>
   <si>
     <t>Mr. House renovates New Vegas</t>
+  </si>
+  <si>
+    <t>The US annexes Canada</t>
+  </si>
+  <si>
+    <t>The Brotherhood of Steel is formed</t>
+  </si>
+  <si>
+    <t>The first Vaults begin opening since being sealed</t>
+  </si>
+  <si>
+    <t>October 23 - The Great War</t>
   </si>
 </sst>
 </file>
@@ -971,7 +983,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{928EFFCD-1167-4CC6-829F-0E889E4C89DC}" type="CELLRANGE">
+                    <a:fld id="{ECA83F14-F451-4768-83ED-DF8509EC7977}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1008,7 +1020,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F6772F3E-F914-4183-9DB8-DFE99C8311E4}" type="CELLRANGE">
+                    <a:fld id="{61D3B7FB-ACA0-4FF6-8D05-15575E06C609}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1041,7 +1053,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AA2366B6-1BC7-4C6A-8693-65772FD80484}" type="CELLRANGE">
+                    <a:fld id="{CC0D18A5-6308-49F0-98FD-DFB371097330}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1074,7 +1086,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{12E365CE-814A-4BC7-BBA1-1AAE363C2A49}" type="CELLRANGE">
+                    <a:fld id="{B1F54AC7-F353-4AE1-9897-BFEF89366BE9}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1107,7 +1119,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E7E4D242-CC89-4964-AAC7-3A67D07011A0}" type="CELLRANGE">
+                    <a:fld id="{85C18A1A-BB0B-4A90-89C1-4A5DD43C1075}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1140,7 +1152,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FB05F62-47D1-4733-81DF-BC8E912B10B4}" type="CELLRANGE">
+                    <a:fld id="{21E7803D-CACB-426B-95D5-4D60D1B97E8E}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1173,7 +1185,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F443EFAD-EA82-4891-A3C3-E929F9574303}" type="CELLRANGE">
+                    <a:fld id="{ECDC148F-3DBD-4E0B-9D8B-A1F645350BC2}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1206,7 +1218,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{40F274E3-5C8C-4253-9A97-5DDFE6E704BB}" type="CELLRANGE">
+                    <a:fld id="{39DA19A9-3A21-4695-A6BF-7EA7A5C18E31}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1239,7 +1251,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{237644E3-F868-4F08-BDF3-8B0D48DCE37A}" type="CELLRANGE">
+                    <a:fld id="{482F76DD-DBDE-4A4D-A337-C433959D57D7}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1272,7 +1284,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{816CE441-B492-4727-B5D0-0CBCCF5137D2}" type="CELLRANGE">
+                    <a:fld id="{945FE717-5AAA-4C74-9F7A-059F2A599319}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1305,7 +1317,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{48304BD0-915E-4C20-B5BF-C2DB8D8659B6}" type="CELLRANGE">
+                    <a:fld id="{9EB4DAF6-781D-4CC5-895F-35A801808D17}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1338,7 +1350,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{180D801E-5BDC-43EF-89C6-DFF042249F12}" type="CELLRANGE">
+                    <a:fld id="{8DD0437D-D595-43A1-A97B-BCF08530F186}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1371,7 +1383,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF3ACDB8-D205-43AD-A1A1-1FFC0A1B3717}" type="CELLRANGE">
+                    <a:fld id="{5E6F2394-EAE3-4003-8E9C-0E91D64FDAC0}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1404,7 +1416,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{85C82AF0-2E75-4326-A6D2-F11FEE1C127E}" type="CELLRANGE">
+                    <a:fld id="{251B2E93-1E6E-40B0-BF70-2FF86E5B60B0}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1437,7 +1449,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8B677897-FC7F-456A-ACED-232783F352EA}" type="CELLRANGE">
+                    <a:fld id="{C6D79BA7-EEAF-41EC-A8FD-7BCA07CD51AA}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1470,7 +1482,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1611FE2F-A1C8-4293-A06F-D47D00515999}" type="CELLRANGE">
+                    <a:fld id="{1AA09E3A-6E3A-4FA6-A8D8-8596C5632A99}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1503,7 +1515,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBCF3050-3D32-4F06-9055-B739BF5EC044}" type="CELLRANGE">
+                    <a:fld id="{58D22079-D236-40C1-9CFA-F855D44B65EE}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1536,7 +1548,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A5C631C-0190-4087-B059-3E275506D1A9}" type="CELLRANGE">
+                    <a:fld id="{4B1D8420-63B5-4E00-B5EA-85C43D938805}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1569,7 +1581,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F72AF3B9-DC01-4852-B369-1278698D3433}" type="CELLRANGE">
+                    <a:fld id="{3CCA2484-6DCF-4A38-8EAE-3B120F18DA87}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1602,7 +1614,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{51367627-7E3F-4DC4-82CA-57985988C864}" type="CELLRANGE">
+                    <a:fld id="{3F999147-2479-422A-AB2A-82EC74DA0392}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1635,7 +1647,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4C89D0D4-9575-4AE4-8010-1BA056A570D1}" type="CELLRANGE">
+                    <a:fld id="{4007D6AD-B5FF-4AFB-A79B-1E8C10D9AC31}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1668,7 +1680,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E1F6C4CB-9EE6-4F87-B49E-EB1ECA5AFD2E}" type="CELLRANGE">
+                    <a:fld id="{574D3BBF-52AE-4D9F-96AD-1C6FE9ED1824}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1701,7 +1713,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57FDD584-2663-49C4-8408-ABC9770A46A1}" type="CELLRANGE">
+                    <a:fld id="{467CD1E5-9A1F-417F-8416-6FAC22348A6A}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1734,7 +1746,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{99A84E56-B44A-4376-9990-6F2607FBF493}" type="CELLRANGE">
+                    <a:fld id="{C01B1393-1508-4FEC-B5DB-405AEAF2FF36}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1767,7 +1779,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{88885814-AA7E-4252-A63F-411CD1FD11B2}" type="CELLRANGE">
+                    <a:fld id="{2071340C-8481-4ABE-9E2B-65E22747B9EA}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1800,7 +1812,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3FFDBA1-6EEF-45C4-A852-0A8CD852B0D7}" type="CELLRANGE">
+                    <a:fld id="{809284EB-7FC1-40D5-8EB6-31B80EA5EC15}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1833,7 +1845,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7009C1B9-0B96-4572-B35A-CF087EEA6ED0}" type="CELLRANGE">
+                    <a:fld id="{A25D0DA8-22F6-4C2A-8A02-068EF77EA090}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1866,7 +1878,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A679A03A-428D-404D-B310-4BF70835E76F}" type="CELLRANGE">
+                    <a:fld id="{9DC8C376-E0B5-4882-A628-3A641C4D84E1}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1899,7 +1911,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{881257B5-84FD-4031-A24C-CDE3AC25530C}" type="CELLRANGE">
+                    <a:fld id="{12586CC7-B691-48F1-941E-4E2356BA2CDC}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1932,7 +1944,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{108615C9-0A60-4AE5-A59F-9F8D000A5C81}" type="CELLRANGE">
+                    <a:fld id="{E877230A-29FE-458F-BD39-086D58109475}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1965,7 +1977,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D9367DA7-1790-4FCB-A181-64706F341B55}" type="CELLRANGE">
+                    <a:fld id="{6E5EF261-44CE-466F-A150-F68CF43B2C3E}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -1998,7 +2010,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C31E89AD-AEA4-4F6A-9FFE-265AEF156A24}" type="CELLRANGE">
+                    <a:fld id="{D56C312D-7747-4974-9AD7-B75E4F94C7E9}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2031,7 +2043,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{49DB7B96-0554-47A0-A362-F04C6432F61E}" type="CELLRANGE">
+                    <a:fld id="{3F2FD68E-B17C-4FFD-86CD-FA9360DDA7D6}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2064,7 +2076,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9102D79F-6EBD-452A-885A-4CB47D2E392E}" type="CELLRANGE">
+                    <a:fld id="{02FEE97E-F089-4858-8814-E4DA1D0CDCB2}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2097,7 +2109,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DC9F54D4-1E02-422B-A5B6-9E6D837437EC}" type="CELLRANGE">
+                    <a:fld id="{F7BC11C7-0312-4D56-9A28-6FD8B88615F0}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2130,7 +2142,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CA8A5AB6-4027-4A10-A5B6-F93918F6521E}" type="CELLRANGE">
+                    <a:fld id="{6756545C-BB72-45CB-A84B-FD9A31FC86BE}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2163,7 +2175,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BA93D98-EF87-4112-9CA7-F95D16B4B2AC}" type="CELLRANGE">
+                    <a:fld id="{51AD7140-C20E-4296-B55F-EA493905962C}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2196,7 +2208,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5BFE7967-464E-4E96-A3F7-FE3393371495}" type="CELLRANGE">
+                    <a:fld id="{9CCE168A-5F00-4BCA-8D53-6BFAA2A9CD9C}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2229,7 +2241,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9AB72659-BE96-4FE7-AE07-9D1BAF212802}" type="CELLRANGE">
+                    <a:fld id="{28EF4F44-1587-4312-8AF6-59A2E5A3B7A5}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2256,150 +2268,72 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="40"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FD47D692-F51D-4BB7-A0EB-F67BF36ED512}" type="CELLRANGE">
-                      <a:rPr lang="en-IE"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-IE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="41"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{31FD2D6C-1865-4656-B2D4-4FE772D213F9}" type="CELLRANGE">
-                      <a:rPr lang="en-IE"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-IE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="42"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-IE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="43"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="44"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:xForSave val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="45"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2424,7 +2358,7 @@
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="46"/>
+              <c:idx val="44"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2540,10 +2474,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Vertical!$M$3:$M$49</c:f>
+              <c:f>Vertical!$M$3:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>-50</c:v>
                 </c:pt>
@@ -2560,111 +2494,105 @@
                   <c:v>-80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>-100</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>-70</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-50</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -2672,10 +2600,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vertical!$K$3:$K$49</c:f>
+              <c:f>Vertical!$K$3:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>1969</c:v>
                 </c:pt>
@@ -2692,111 +2620,105 @@
                   <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2051</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2053</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2054</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2059</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2060</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2066</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2066</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2067</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2075</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2076</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2077</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2082</c:v>
+                  <c:v>2102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2090</c:v>
+                  <c:v>2102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2102</c:v>
+                  <c:v>2110</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2102</c:v>
+                  <c:v>2130</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2110</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2130</c:v>
+                  <c:v>2138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2137</c:v>
+                  <c:v>2155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2138</c:v>
+                  <c:v>2161</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2155</c:v>
+                  <c:v>2162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2161</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2162</c:v>
+                  <c:v>2189</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2186</c:v>
+                  <c:v>2208</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2189</c:v>
+                  <c:v>2241</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2208</c:v>
+                  <c:v>2242</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2241</c:v>
+                  <c:v>2247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2242</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2247</c:v>
+                  <c:v>2277</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2274</c:v>
+                  <c:v>2278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2277</c:v>
+                  <c:v>2281</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2278</c:v>
+                  <c:v>2282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2281</c:v>
+                  <c:v>2287</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2282</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2287</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>2288</c:v>
                 </c:pt>
               </c:numCache>
@@ -2809,9 +2731,9 @@
             </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Vertical!$L$3:$L$49</c15:f>
+                <c15:f>Vertical!$L$3:$L$47</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="47"/>
+                  <c:ptCount val="45"/>
                   <c:pt idx="1">
                     <c:v>The US is split into 13 Commonwealths</c:v>
                   </c:pt>
@@ -2828,114 +2750,108 @@
                     <c:v>Nuka-Cola is released</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>The US enters Mexico to secure fuel supplies</c:v>
+                    <c:v>The Resource Wars begin</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>The Resource Wars begin</c:v>
+                    <c:v>The New Plague ravages the US</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>The New Plague ravages the US</c:v>
+                    <c:v>Vault creation begins under Project Safehouse</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Vault creation begins under Project Safehouse</c:v>
+                    <c:v>The US increases military in Alaska</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>The US increases military in Alaska</c:v>
+                    <c:v>The European Commonwealth disbands</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>The European Commonwealth disbands</c:v>
+                    <c:v>China invades Alaska</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>World energy crisis causes US to cut ties with all other nations</c:v>
+                    <c:v>The T-45 Power Armour is deployed to Alaska</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>China invades Alaska</c:v>
+                    <c:v>The Forced Evolutionary Virus is created by West Tek</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>The T-45 Power Armour is deployed to Alaska</c:v>
+                    <c:v>The US annexes Canada</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>The Forced Evolutionary Virus is created by West Tek</c:v>
+                    <c:v>October 23 - The Great War</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>The US fully annexes Canada</c:v>
+                    <c:v>The Brotherhood of Steel is formed</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>October 23 - The Great War occurs over 2 hours</c:v>
+                    <c:v>The first Vaults begin opening since being sealed</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>The Brotherhood of Steel is formalized</c:v>
+                    <c:v>Richard Grey become the Master</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>The first Vaults begin opening</c:v>
+                    <c:v>Fallout 76 begins</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Richard Grey become the Master</c:v>
+                    <c:v>The Institute is founded</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Fallout 76 begins</c:v>
+                    <c:v>The Great Winter occurrs</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>The Institute is founded</c:v>
+                    <c:v>The Masters army Unity is fully formed</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>The Great Winter occurrs</c:v>
+                    <c:v>Robert House exits his cryogenic state</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>The Masters army Unity is fully formed</c:v>
+                    <c:v>The Gun Runners are formed</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Robert House exits his cryogenic state</c:v>
+                    <c:v>Fallout 1 begins</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>The Gun Runners are formed</c:v>
+                    <c:v>Fallout 1 ends</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Fallout 1 begins</c:v>
+                    <c:v>The New California Republic is created</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Fallout 1 ends</c:v>
+                    <c:v>The Followers of the Apocalypse become a major influence</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>The New California Republic is created</c:v>
+                    <c:v>The Vault Dweller Dies</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>The Followers of the Apocalypse become a major influence</c:v>
+                    <c:v>Fallout 2 begins</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>The Vault Dweller Dies</c:v>
+                    <c:v>Fallout 2 ends</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Fallout 2 begins</c:v>
+                    <c:v>Caesar's Legion is formed</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Fallout 2 ends</c:v>
+                    <c:v>Mr. House renovates New Vegas</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Caesar's Legion is formed</c:v>
+                    <c:v>Fallout 3 begins</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Mr. House renovates New Vegas</c:v>
+                    <c:v>Fallout 3 ends</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Fallout 3 begins</c:v>
+                    <c:v>Fallout: New Vegas begins</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Fallout 3 ends</c:v>
+                    <c:v>Fallout: New Vegas ends</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Fallout: New Vegas begins</c:v>
+                    <c:v>Fallout 4 begins</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Fallout: New Vegas ends</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Fallout 4 begins</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
                     <c:v>Fallout 4 ends</c:v>
                   </c:pt>
-                  <c:pt idx="45">
+                  <c:pt idx="43">
                     <c:v>Insert new rows above this one</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -2951,11 +2867,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="384395680"/>
-        <c:axId val="384390976"/>
+        <c:axId val="380877120"/>
+        <c:axId val="380876728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="384395680"/>
+        <c:axId val="380877120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2967,13 +2883,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="384390976"/>
+        <c:crossAx val="380876728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="384390976"/>
+        <c:axId val="380876728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="1959"/>
@@ -3015,7 +2931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="384395680"/>
+        <c:crossAx val="380877120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -3129,7 +3045,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -3230,7 +3145,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -3254,7 +3168,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -3262,13 +3175,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{61D9C6FB-48BE-4A23-947E-F0A0394E2F9B}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A19CBC17-1C60-40B6-BA65-2CB43AD28F89}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3286,7 +3198,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3295,13 +3206,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{412D1850-1836-4C33-A0B7-6D610D77AB55}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4FAE2B28-7E60-4538-9AC0-E8665B6E44B4}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3319,7 +3229,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3328,13 +3237,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C1F63EF4-9567-4EC0-9F1C-CAEFB94F123D}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C9563F9E-CF2D-4689-8F3C-CBB7C8E2D623}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3352,7 +3260,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3361,13 +3268,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="5"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ECFBAFA2-42E8-46DD-8929-8B5B66290B6E}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B2BBECE4-8034-49DD-AE98-C939C6B19B4E}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3385,7 +3291,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3394,13 +3299,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{568CF2F6-EDC3-484D-B1A1-9BE081DFF323}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{037754D5-C428-43CD-A118-20C17A297F3B}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3418,7 +3322,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3427,13 +3330,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="7"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{501A42BF-9FCF-42F5-918B-09701410FCC1}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9C55E126-F967-471A-8326-B1048419C4B0}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3451,7 +3353,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3489,7 +3390,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -3497,13 +3397,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="9"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{349159FC-0276-408B-8D5D-098285FC6E1D}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2DB205AF-CC9F-42C2-B49D-067B0815747E}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3521,7 +3420,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3559,7 +3457,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
@@ -3567,13 +3464,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="11"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{55A609B5-07B7-4E08-9B12-2E2CC05D18F0}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FF45B0BB-CDAD-413E-9171-964A4811831C}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3591,7 +3487,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3600,13 +3495,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="12"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{FFA50559-97BD-48C2-A687-8A1221620565}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C965FA43-AA42-42ED-A245-EDDD57139070}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3624,7 +3518,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3633,13 +3526,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="13"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0BCCA016-63B2-4F16-A791-AA7B6CCD79EE}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FE786C52-C782-4E03-8E1C-374EBDA554B2}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3657,7 +3549,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3666,13 +3557,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="14"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{00F1D39A-457E-46CD-AE79-AF382EDDC437}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E068A60B-6A56-4DF1-A3BF-A0CDF76F0E31}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3690,7 +3580,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3699,13 +3588,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="15"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B62B48CE-26C0-40A1-B848-1295FE4B1FCC}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{65657485-9611-45EA-A452-D7C6B7995827}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3723,7 +3611,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3732,13 +3619,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="16"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5445B070-7F6B-4F3E-BE03-1B6BD33BBEE3}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C567F759-9A22-44E8-90AD-CF29601EF10A}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3756,7 +3642,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3765,13 +3650,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="17"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E7C2EE5E-B643-42CA-B74B-937CDA167042}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8FBBA11B-18D6-45D2-B26D-359D96709CB1}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3789,7 +3673,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3798,13 +3681,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="18"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{81955E39-BF2B-4658-825B-17293E3BE434}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5AB0A930-43BC-41AC-A843-CE3F72402496}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3822,7 +3704,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3831,13 +3712,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="19"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1E9DCDE9-0094-4179-B423-ABFBC1F9E97B}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6C4B14E0-8C50-4F30-A855-FC8744FC796D}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3855,7 +3735,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3864,13 +3743,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="20"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{33B18721-097C-4893-9917-0F69EAC0C034}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E60F2ED5-0A42-4A5A-86F3-97CE61479662}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3888,7 +3766,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3897,13 +3774,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="21"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6982A6D8-AEEC-4219-98AD-E39BC5EE5497}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EF3AC2F5-036A-4B13-B899-F708F7B97439}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3921,7 +3797,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3930,13 +3805,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="22"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C97C789D-EB59-4251-BD96-0E46292668B2}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9D7E2AA2-449C-4DEC-9171-CB1C6AF9F468}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3954,7 +3828,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3963,13 +3836,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="23"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{92D26930-7E9F-4BC2-91A2-C6623D1950A3}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D8097667-F8BF-4697-B308-99E68CE0F10A}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -3987,7 +3859,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -3996,13 +3867,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="24"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{ADEFDB42-6D9A-459E-A73F-10BF6BED17D6}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B3CF449B-0F56-46D8-B4EA-09BEC00AD737}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4020,7 +3890,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4029,13 +3898,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="25"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{C5DAC0E3-30C6-4A59-878C-876253221A2A}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CCDFD31F-F219-4AA6-91B4-BB1F4173FB92}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4053,7 +3921,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4062,13 +3929,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="26"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1E44D26A-C3F4-49F7-8A4B-D90164F13ABB}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E3D7CB60-7767-4451-A6BD-71CCB2A6615E}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4086,7 +3952,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4095,13 +3960,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="27"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{102C1683-C4ED-4A21-9C66-A79F9B3716E6}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A2EC51C1-2584-484E-A2F9-900ED90AC1AC}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4119,7 +3983,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4128,13 +3991,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="28"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{51A6DB69-CDAB-4A50-9F89-128ACF20E423}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DD13C80E-805F-436B-84D1-31BEDF83C4CA}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4152,7 +4014,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4161,13 +4022,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="29"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{56691CEA-579C-4F34-9205-1816301C2279}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{25CA4201-1169-47A8-8AB6-988CDE236F97}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4185,7 +4045,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4194,13 +4053,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="30"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{11F6D6E8-C8C4-443A-BF1B-EA6F706A2B7F}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{99B5880F-7AAB-4AA0-99FA-EE52727B912F}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4218,7 +4076,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4227,13 +4084,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="31"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5D2A8CD7-F729-4B8D-95C2-A02D6588DD7A}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{29B2CE5D-8774-4387-8BD0-BEA5D20CC6E2}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4251,7 +4107,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4260,13 +4115,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="32"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{F1BAD21D-5C00-44E5-870F-088A37ED79C5}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{971DB610-B501-4D5B-A688-E0A34D57DFB9}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4284,7 +4138,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4293,13 +4146,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="33"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D0769122-93AD-4A8D-858F-DE27DA5F0766}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3FC2B16C-09F1-4989-9010-1504397E4E51}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4317,7 +4169,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4326,13 +4177,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="34"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{96FA44AC-35FD-4D69-9F04-EC4E9D4F32AE}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{ECB17A81-41AB-4C1F-A64A-67FFBEAE47D2}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4350,7 +4200,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4359,13 +4208,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="35"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{691EDEE0-0347-43EF-8A11-5E239C811197}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B20680EB-EE5C-4070-8498-FE4E370EDC9B}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4383,7 +4231,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4392,13 +4239,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="36"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{6F9AE2E1-4A73-48C1-A33E-DAA6CE00AA8F}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0341934B-024E-45C2-A76B-4B3EF7356254}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4416,7 +4262,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4425,13 +4270,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="37"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{33BC4A29-D491-4B25-A662-CDABD27B60B4}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{64EBFB32-1F99-4ED4-9370-DB434D3F94EF}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4449,7 +4293,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4458,13 +4301,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="38"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3060E646-76A5-4E28-A41B-E49E34ECFD98}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C54B4BCF-EC73-4FA2-B0C0-D655BFF527D8}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4482,7 +4324,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4491,13 +4332,12 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="39"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{311D46C1-2E10-4CC5-936B-8EB21A0FE825}" type="CELLRANGE">
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1C08E2BE-C392-4500-97E7-854782617253}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -4515,7 +4355,6 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
                   <c15:dlblFieldTable/>
                   <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
@@ -4524,67 +4363,49 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="40"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{226B4032-839B-4B85-AC36-A6BA2F52C960}" type="CELLRANGE">
-                      <a:rPr lang="en-IE"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-IE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="41"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{59F8C876-9BBA-4322-9E6A-46CE5B84E0F2}" type="CELLRANGE">
-                      <a:rPr lang="en-IE"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-IE"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="t"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:endParaRPr lang="en-IE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:xForSave val="1"/>
-                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4753,7 +4574,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
@@ -4794,10 +4614,10 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>Vertical!$M$3:$M$49</c:f>
+              <c:f>Vertical!$M$3:$M$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>-50</c:v>
                 </c:pt>
@@ -4814,111 +4634,105 @@
                   <c:v>-80</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="14">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="15">
                   <c:v>-100</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="18">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>35</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>-70</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-50</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>-70</c:v>
                 </c:pt>
-                <c:pt idx="25">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
                   <c:v>-50</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="37">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-50</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-70</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-50</c:v>
-                </c:pt>
                 <c:pt idx="39">
-                  <c:v>-100</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -4926,10 +4740,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Vertical!$K$3:$K$49</c:f>
+              <c:f>Vertical!$K$3:$K$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="47"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>1969</c:v>
                 </c:pt>
@@ -4946,111 +4760,105 @@
                   <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2051</c:v>
+                  <c:v>2052</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2052</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2053</c:v>
+                  <c:v>2054</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2054</c:v>
+                  <c:v>2059</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2059</c:v>
+                  <c:v>2060</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2060</c:v>
+                  <c:v>2066</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2066</c:v>
+                  <c:v>2067</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2066</c:v>
+                  <c:v>2075</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2067</c:v>
+                  <c:v>2076</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2075</c:v>
+                  <c:v>2077</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2076</c:v>
+                  <c:v>2082</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2077</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2082</c:v>
+                  <c:v>2102</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2090</c:v>
+                  <c:v>2102</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2102</c:v>
+                  <c:v>2110</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2102</c:v>
+                  <c:v>2130</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2110</c:v>
+                  <c:v>2137</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2130</c:v>
+                  <c:v>2138</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2137</c:v>
+                  <c:v>2155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2138</c:v>
+                  <c:v>2161</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2155</c:v>
+                  <c:v>2162</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2161</c:v>
+                  <c:v>2186</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2162</c:v>
+                  <c:v>2189</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2186</c:v>
+                  <c:v>2208</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2189</c:v>
+                  <c:v>2241</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2208</c:v>
+                  <c:v>2242</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2241</c:v>
+                  <c:v>2247</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2242</c:v>
+                  <c:v>2274</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2247</c:v>
+                  <c:v>2277</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2274</c:v>
+                  <c:v>2278</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2277</c:v>
+                  <c:v>2281</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2278</c:v>
+                  <c:v>2282</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2281</c:v>
+                  <c:v>2287</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2282</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2287</c:v>
-                </c:pt>
-                <c:pt idx="41">
                   <c:v>2288</c:v>
                 </c:pt>
               </c:numCache>
@@ -5063,9 +4871,9 @@
             </c:ext>
             <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
               <c15:datalabelsRange>
-                <c15:f>Vertical!$L$3:$L$49</c15:f>
+                <c15:f>Vertical!$L$3:$L$47</c15:f>
                 <c15:dlblRangeCache>
-                  <c:ptCount val="47"/>
+                  <c:ptCount val="45"/>
                   <c:pt idx="1">
                     <c:v>The US is split into 13 Commonwealths</c:v>
                   </c:pt>
@@ -5082,114 +4890,108 @@
                     <c:v>Nuka-Cola is released</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>The US enters Mexico to secure fuel supplies</c:v>
+                    <c:v>The Resource Wars begin</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>The Resource Wars begin</c:v>
+                    <c:v>The New Plague ravages the US</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>The New Plague ravages the US</c:v>
+                    <c:v>Vault creation begins under Project Safehouse</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>Vault creation begins under Project Safehouse</c:v>
+                    <c:v>The US increases military in Alaska</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>The US increases military in Alaska</c:v>
+                    <c:v>The European Commonwealth disbands</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>The European Commonwealth disbands</c:v>
+                    <c:v>China invades Alaska</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>World energy crisis causes US to cut ties with all other nations</c:v>
+                    <c:v>The T-45 Power Armour is deployed to Alaska</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>China invades Alaska</c:v>
+                    <c:v>The Forced Evolutionary Virus is created by West Tek</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>The T-45 Power Armour is deployed to Alaska</c:v>
+                    <c:v>The US annexes Canada</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>The Forced Evolutionary Virus is created by West Tek</c:v>
+                    <c:v>October 23 - The Great War</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>The US fully annexes Canada</c:v>
+                    <c:v>The Brotherhood of Steel is formed</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>October 23 - The Great War occurs over 2 hours</c:v>
+                    <c:v>The first Vaults begin opening since being sealed</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>The Brotherhood of Steel is formalized</c:v>
+                    <c:v>Richard Grey become the Master</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>The first Vaults begin opening</c:v>
+                    <c:v>Fallout 76 begins</c:v>
                   </c:pt>
                   <c:pt idx="20">
-                    <c:v>Richard Grey become the Master</c:v>
+                    <c:v>The Institute is founded</c:v>
                   </c:pt>
                   <c:pt idx="21">
-                    <c:v>Fallout 76 begins</c:v>
+                    <c:v>The Great Winter occurrs</c:v>
                   </c:pt>
                   <c:pt idx="22">
-                    <c:v>The Institute is founded</c:v>
+                    <c:v>The Masters army Unity is fully formed</c:v>
                   </c:pt>
                   <c:pt idx="23">
-                    <c:v>The Great Winter occurrs</c:v>
+                    <c:v>Robert House exits his cryogenic state</c:v>
                   </c:pt>
                   <c:pt idx="24">
-                    <c:v>The Masters army Unity is fully formed</c:v>
+                    <c:v>The Gun Runners are formed</c:v>
                   </c:pt>
                   <c:pt idx="25">
-                    <c:v>Robert House exits his cryogenic state</c:v>
+                    <c:v>Fallout 1 begins</c:v>
                   </c:pt>
                   <c:pt idx="26">
-                    <c:v>The Gun Runners are formed</c:v>
+                    <c:v>Fallout 1 ends</c:v>
                   </c:pt>
                   <c:pt idx="27">
-                    <c:v>Fallout 1 begins</c:v>
+                    <c:v>The New California Republic is created</c:v>
                   </c:pt>
                   <c:pt idx="28">
-                    <c:v>Fallout 1 ends</c:v>
+                    <c:v>The Followers of the Apocalypse become a major influence</c:v>
                   </c:pt>
                   <c:pt idx="29">
-                    <c:v>The New California Republic is created</c:v>
+                    <c:v>The Vault Dweller Dies</c:v>
                   </c:pt>
                   <c:pt idx="30">
-                    <c:v>The Followers of the Apocalypse become a major influence</c:v>
+                    <c:v>Fallout 2 begins</c:v>
                   </c:pt>
                   <c:pt idx="31">
-                    <c:v>The Vault Dweller Dies</c:v>
+                    <c:v>Fallout 2 ends</c:v>
                   </c:pt>
                   <c:pt idx="32">
-                    <c:v>Fallout 2 begins</c:v>
+                    <c:v>Caesar's Legion is formed</c:v>
                   </c:pt>
                   <c:pt idx="33">
-                    <c:v>Fallout 2 ends</c:v>
+                    <c:v>Mr. House renovates New Vegas</c:v>
                   </c:pt>
                   <c:pt idx="34">
-                    <c:v>Caesar's Legion is formed</c:v>
+                    <c:v>Fallout 3 begins</c:v>
                   </c:pt>
                   <c:pt idx="35">
-                    <c:v>Mr. House renovates New Vegas</c:v>
+                    <c:v>Fallout 3 ends</c:v>
                   </c:pt>
                   <c:pt idx="36">
-                    <c:v>Fallout 3 begins</c:v>
+                    <c:v>Fallout: New Vegas begins</c:v>
                   </c:pt>
                   <c:pt idx="37">
-                    <c:v>Fallout 3 ends</c:v>
+                    <c:v>Fallout: New Vegas ends</c:v>
                   </c:pt>
                   <c:pt idx="38">
-                    <c:v>Fallout: New Vegas begins</c:v>
+                    <c:v>Fallout 4 begins</c:v>
                   </c:pt>
                   <c:pt idx="39">
-                    <c:v>Fallout: New Vegas ends</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>Fallout 4 begins</c:v>
-                  </c:pt>
-                  <c:pt idx="41">
                     <c:v>Fallout 4 ends</c:v>
                   </c:pt>
-                  <c:pt idx="45">
+                  <c:pt idx="43">
                     <c:v>Insert new rows above this one</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
@@ -5205,11 +5007,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="616605784"/>
-        <c:axId val="616603824"/>
+        <c:axId val="380877512"/>
+        <c:axId val="380873592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="616605784"/>
+        <c:axId val="380877512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -5221,13 +5023,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616603824"/>
+        <c:crossAx val="380873592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="616603824"/>
+        <c:axId val="380873592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2288"/>
@@ -5270,7 +5072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="616605784"/>
+        <c:crossAx val="380877512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
@@ -6421,17 +6223,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>225137</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8109857</xdr:colOff>
       <xdr:row>235</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6470,7 +6272,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6525,7 +6327,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6569,7 +6371,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6605,8 +6407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="K2:M48" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="K2:M48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="K2:M46" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="K2:M46"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Year" dataDxfId="2"/>
     <tableColumn id="7" name="Label" dataDxfId="1"/>
@@ -6879,18 +6681,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G1:P70"/>
+  <dimension ref="G1:P68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4:L44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A186" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="9" width="10.28515625" customWidth="1"/>
-    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="10" max="10" width="122.140625" customWidth="1"/>
     <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="57.85546875" customWidth="1"/>
     <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="9.7109375" customWidth="1"/>
     <col min="15" max="15" width="37.85546875" customWidth="1"/>
@@ -6992,14 +6794,14 @@
       </c>
     </row>
     <row r="9" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K9" s="15">
-        <v>2051</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>32</v>
+      <c r="K9" s="27">
+        <v>2052</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>33</v>
       </c>
       <c r="M9" s="21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -7007,13 +6809,13 @@
     </row>
     <row r="10" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K10" s="27">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="L10" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M10" s="21">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>10</v>
@@ -7021,24 +6823,24 @@
     </row>
     <row r="11" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K11" s="27">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="L11" s="29" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="M11" s="21">
-        <v>-50</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="12" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K12" s="27">
-        <v>2054</v>
+        <v>2059</v>
       </c>
       <c r="L12" s="29" t="s">
-        <v>58</v>
+        <v>35</v>
       </c>
       <c r="M12" s="21">
-        <v>-100</v>
+        <v>20</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>6</v>
@@ -7046,13 +6848,13 @@
     </row>
     <row r="13" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K13" s="27">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="L13" s="29" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="M13" s="21">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>7</v>
@@ -7060,13 +6862,13 @@
     </row>
     <row r="14" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K14" s="27">
-        <v>2060</v>
-      </c>
-      <c r="L14" s="29" t="s">
-        <v>59</v>
+        <v>2066</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="M14" s="21">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -7074,13 +6876,13 @@
     </row>
     <row r="15" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K15" s="27">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="M15" s="21">
-        <v>-50</v>
+        <v>50</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>9</v>
@@ -7088,121 +6890,121 @@
     </row>
     <row r="16" spans="7:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K16" s="27">
-        <v>2066</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>37</v>
+        <v>2075</v>
+      </c>
+      <c r="L16" s="29" t="s">
+        <v>39</v>
       </c>
       <c r="M16" s="21">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K17" s="27">
-        <v>2067</v>
+        <v>2076</v>
       </c>
       <c r="L17" s="29" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="M17" s="21">
-        <v>50</v>
+        <v>-50</v>
       </c>
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K18" s="27">
-        <v>2075</v>
+        <v>2077</v>
       </c>
       <c r="L18" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="M18" s="21">
-        <v>100</v>
+        <v>71</v>
+      </c>
+      <c r="M18" s="31">
+        <v>-100</v>
       </c>
     </row>
     <row r="19" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K19" s="27">
-        <v>2076</v>
+        <v>2082</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="21">
-        <v>-50</v>
+        <v>69</v>
+      </c>
+      <c r="M19" s="31">
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K20" s="27">
-        <v>2077</v>
+        <v>2090</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M20" s="31">
-        <v>-100</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="21" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K21" s="27">
-        <v>2082</v>
+        <v>2102</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M21" s="31">
-        <v>50</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="22" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K22" s="27">
-        <v>2090</v>
+        <v>2102</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="M22" s="31">
-        <v>-50</v>
+        <v>48</v>
+      </c>
+      <c r="M22" s="21">
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K23" s="27">
-        <v>2102</v>
+        <v>2110</v>
       </c>
       <c r="L23" s="29" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="M23" s="31">
-        <v>-50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K24" s="27">
-        <v>2102</v>
+        <v>2130</v>
       </c>
       <c r="L24" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M24" s="21">
-        <v>35</v>
+        <v>42</v>
+      </c>
+      <c r="M24" s="31">
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K25" s="27">
-        <v>2110</v>
+        <v>2137</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M25" s="31">
-        <v>40</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="26" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K26" s="27">
-        <v>2130</v>
+        <v>2138</v>
       </c>
       <c r="L26" s="29" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="M26" s="31">
         <v>50</v>
@@ -7210,223 +7012,211 @@
     </row>
     <row r="27" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K27" s="27">
-        <v>2137</v>
+        <v>2155</v>
       </c>
       <c r="L27" s="29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M27" s="31">
-        <v>-70</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="28" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K28" s="27">
-        <v>2138</v>
+        <v>2161</v>
       </c>
       <c r="L28" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="M28" s="31">
-        <v>50</v>
+        <v>46</v>
+      </c>
+      <c r="M28" s="21">
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K29" s="27">
-        <v>2155</v>
+        <v>2162</v>
       </c>
       <c r="L29" s="29" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="M29" s="31">
-        <v>-50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K30" s="27">
-        <v>2161</v>
+        <v>2186</v>
       </c>
       <c r="L30" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="M30" s="21">
-        <v>35</v>
+        <v>45</v>
+      </c>
+      <c r="M30" s="31">
+        <v>-50</v>
       </c>
     </row>
     <row r="31" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K31" s="27">
-        <v>2162</v>
+        <v>2189</v>
       </c>
       <c r="L31" s="29" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M31" s="31">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="11:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K32" s="27">
-        <v>2186</v>
+        <v>2208</v>
       </c>
       <c r="L32" s="29" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M32" s="31">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="11:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K33" s="27">
-        <v>2189</v>
+        <v>2241</v>
       </c>
       <c r="L33" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="M33" s="31">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="M33" s="21">
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="11:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K34" s="27">
-        <v>2208</v>
+        <v>2242</v>
       </c>
       <c r="L34" s="29" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="M34" s="31">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="11:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="K35" s="27">
-        <v>2241</v>
+        <v>2247</v>
       </c>
       <c r="L35" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="M35" s="21">
-        <v>35</v>
+        <v>66</v>
+      </c>
+      <c r="M35" s="31">
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="11:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K36" s="27">
-        <v>2242</v>
+        <v>2274</v>
       </c>
       <c r="L36" s="29" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="M36" s="31">
-        <v>70</v>
+        <v>-70</v>
       </c>
     </row>
     <row r="37" spans="11:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="K37" s="27">
-        <v>2247</v>
+        <v>2277</v>
       </c>
       <c r="L37" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="M37" s="31">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="M37" s="21">
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K38" s="27">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="L38" s="29" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="M38" s="31">
-        <v>-70</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K39" s="27">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="L39" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="M39" s="21">
-        <v>35</v>
+        <v>56</v>
+      </c>
+      <c r="M39" s="31">
+        <v>-50</v>
       </c>
     </row>
     <row r="40" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K40" s="27">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="L40" s="29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M40" s="31">
-        <v>70</v>
+        <v>-100</v>
       </c>
     </row>
     <row r="41" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K41" s="27">
-        <v>2281</v>
+        <v>2287</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M41" s="31">
-        <v>-50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K42" s="27">
-        <v>2282</v>
+        <v>2288</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M42" s="31">
-        <v>-100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K43" s="27">
-        <v>2287</v>
-      </c>
-      <c r="L43" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="M43" s="31">
-        <v>35</v>
-      </c>
+      <c r="K43" s="27"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="31"/>
     </row>
     <row r="44" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K44" s="27">
-        <v>2288</v>
-      </c>
-      <c r="L44" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="M44" s="31">
-        <v>70</v>
-      </c>
+      <c r="K44" s="27"/>
+      <c r="L44" s="29"/>
+      <c r="M44" s="31"/>
     </row>
     <row r="45" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K45" s="27"/>
+      <c r="K45" s="15"/>
       <c r="L45" s="29"/>
-      <c r="M45" s="31"/>
+      <c r="M45" s="21"/>
     </row>
     <row r="46" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K46" s="27"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="31"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="20"/>
     </row>
     <row r="47" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K47" s="15"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="21"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
     </row>
     <row r="48" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K48" s="5"/>
-      <c r="L48" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="20"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
     </row>
     <row r="49" spans="11:13" x14ac:dyDescent="0.25">
       <c r="K49" s="2"/>
@@ -7504,7 +7294,7 @@
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K64" s="2"/>
+      <c r="K64" s="3"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
@@ -7514,7 +7304,7 @@
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K66" s="3"/>
+      <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
@@ -7527,16 +7317,6 @@
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-    </row>
-    <row r="69" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-    </row>
-    <row r="70" spans="11:13" x14ac:dyDescent="0.25">
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
